--- a/Project2/MAPE_Scores.xlsx
+++ b/Project2/MAPE_Scores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nycdoe\Documents\GitHub\DATA624\Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d52fed4db2de6dc/Documents/academic/CUNY SPS/DATA624/DATA624_HW1/Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_B7F8AD885FAD21DA3484FEFDB0E2B8CCC3AD6975" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02470D8-1878-4CE7-A1F9-EDB64C0D603A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="4848" yWindow="4560" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Model</t>
   </si>
@@ -36,12 +37,21 @@
   </si>
   <si>
     <t>knn</t>
+  </si>
+  <si>
+    <t>OLS</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,16 +371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -390,6 +400,39 @@
       </c>
       <c r="C2">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1.22</v>
+      </c>
+      <c r="C3">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.19</v>
+      </c>
+      <c r="C4">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.24</v>
+      </c>
+      <c r="C5">
+        <v>0.13900000000000001</v>
       </c>
     </row>
   </sheetData>
